--- a/data/performance.xlsx
+++ b/data/performance.xlsx
@@ -466,20 +466,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Wisła Płock</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>1.152719271238584</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6472807287614157</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -488,20 +488,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Górnik Zabrze</t>
+          <t>Jagiellonia</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="E3" t="n">
-        <v>1.51118565876231</v>
+        <v>1.492869331351872</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4888143412376897</v>
+        <v>0.6071306686481277</v>
       </c>
     </row>
     <row r="4">
@@ -510,20 +510,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jagiellonia</t>
+          <t>Wisła Płock</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="E4" t="n">
-        <v>1.806205323534533</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2937946764654669</v>
+        <v>0.4666666666666668</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cracovia</t>
+          <t>Lech Poznań</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -542,10 +542,10 @@
         <v>1.8</v>
       </c>
       <c r="E5" t="n">
-        <v>1.562391920669429</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="F5" t="n">
-        <v>0.237608079330571</v>
+        <v>0.4666666666666668</v>
       </c>
     </row>
     <row r="6">
@@ -554,20 +554,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Cracovia</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>1.636363636363636</v>
+        <v>1.8</v>
       </c>
       <c r="E6" t="n">
-        <v>1.478447196894882</v>
+        <v>1.353892905349572</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1579164394687544</v>
+        <v>0.4461070946504282</v>
       </c>
     </row>
     <row r="7">
@@ -576,20 +576,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>1.363636363636364</v>
+        <v>1.636363636363636</v>
       </c>
       <c r="E7" t="n">
-        <v>1.230106252346984</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1335301112893792</v>
+        <v>0.3030303030303032</v>
       </c>
     </row>
     <row r="8">
@@ -598,20 +598,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Widzew Łódź</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>1.181818181818182</v>
+        <v>1.5</v>
       </c>
       <c r="E8" t="n">
-        <v>1.074990258877438</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1068279229407434</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="9">
@@ -620,20 +620,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Arka Gdynia</t>
+          <t>Raków</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" t="n">
-        <v>1.090909090909091</v>
+        <v>1.4</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9885159734513085</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1023931174577823</v>
+        <v>0.06666666666666665</v>
       </c>
     </row>
     <row r="10">
@@ -642,20 +642,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lechia Gdańsk</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>11</v>
       </c>
       <c r="D10" t="n">
-        <v>1.090909090909091</v>
+        <v>1.363636363636364</v>
       </c>
       <c r="E10" t="n">
-        <v>1.059287925307787</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03162116560130412</v>
+        <v>0.03030303030303028</v>
       </c>
     </row>
     <row r="11">
@@ -664,20 +664,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lech Poznań</t>
+          <t>Zagłębie Lubin</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="E11" t="n">
-        <v>1.775456421723327</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02454357827667342</v>
+        <v>-0.03333333333333321</v>
       </c>
     </row>
     <row r="12">
@@ -686,20 +686,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Pogoń Szczecin</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>1.3</v>
+        <v>1.181818181818182</v>
       </c>
       <c r="E12" t="n">
-        <v>1.334691802796532</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.03469180279653217</v>
+        <v>-0.1515151515151514</v>
       </c>
     </row>
     <row r="13">
@@ -708,20 +708,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nieciecza</t>
+          <t>Widzew Łódź</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8181818181818182</v>
+        <v>1.181818181818182</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9062555167878874</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.08807369860606917</v>
+        <v>-0.1515151515151514</v>
       </c>
     </row>
     <row r="14">
@@ -730,20 +730,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Motor Lublin</t>
+          <t>Arka Gdynia</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" t="n">
-        <v>1.1</v>
+        <v>1.090909090909091</v>
       </c>
       <c r="E14" t="n">
-        <v>1.193850309731162</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.09385030973116182</v>
+        <v>-0.2424242424242424</v>
       </c>
     </row>
     <row r="15">
@@ -752,20 +752,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Lechia Gdańsk</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" t="n">
-        <v>1.5</v>
+        <v>1.090909090909091</v>
       </c>
       <c r="E15" t="n">
-        <v>1.652526228423943</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1525262284239428</v>
+        <v>-0.2424242424242424</v>
       </c>
     </row>
     <row r="16">
@@ -774,20 +774,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Pogoń Szczecin</t>
+          <t>Motor Lublin</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" t="n">
-        <v>1.181818181818182</v>
+        <v>1.1</v>
       </c>
       <c r="E16" t="n">
-        <v>1.539707982636815</v>
+        <v>1.379152236952591</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3578898008186331</v>
+        <v>-0.2791522369525914</v>
       </c>
     </row>
     <row r="17">
@@ -796,20 +796,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Katowice</t>
+          <t>Nieciecza</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>11</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E17" t="n">
-        <v>1.119907632331486</v>
+        <v>1.128288470485565</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.392634905058759</v>
+        <v>-0.3101066523037465</v>
       </c>
     </row>
     <row r="18">
@@ -818,20 +818,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Raków</t>
+          <t>Katowice</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" t="n">
-        <v>1.4</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="E18" t="n">
-        <v>1.87615406198133</v>
+        <v>1.329182137979974</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.4761540619813296</v>
+        <v>-0.6019094107072471</v>
       </c>
     </row>
     <row r="19">
@@ -850,10 +850,10 @@
         <v>0.7777777777777778</v>
       </c>
       <c r="E19" t="n">
-        <v>1.360411016652159</v>
+        <v>1.399019630567497</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.5826332388743817</v>
+        <v>-0.6212418527897196</v>
       </c>
     </row>
   </sheetData>
